--- a/biology/Médecine/Livedo_reticularis/Livedo_reticularis.xlsx
+++ b/biology/Médecine/Livedo_reticularis/Livedo_reticularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le livedo reticularis est l'aspect dermatologique d'un membre montrant une décoloration pourpre de la peau : les veines forment une apparence mouchetée qui évoque des marbrures[1]. La décoloration provient d'une réduction du débit sanguin des artérioles qui irriguent les capillaires cutanés : le sang, en manque d'oxygène, produit une décoloration bleue. Cette affection peut être liée à une situation qui augmente les risques de caillot sanguin, ce qui correspond à de nombreuses possibilités, tant pathologiques que bénignes ; par exemple l'hyperlipémie, problèmes micro-vasculaires, anémie, carences nutritionnelles, maladies auto-immunes, médicaments ou toxiques.
-Le livedo reticularis peut être lié à de graves pathologies sous-jacentes[2]. Les diagnostics possibles correspondent à des maladies hématologiques, auto-immunes (rhumatologiques), cardiovasculaires ou endocrines. Dans la majorité des cas (80%), la biopsie permet de déterminer le diagnostic[3].
-L'étymologie du livedo reticularis provient du latin livere qui signifie bleuâtre et de reticular qui renvoie à l'aspect d'un maillage[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livedo reticularis est l'aspect dermatologique d'un membre montrant une décoloration pourpre de la peau : les veines forment une apparence mouchetée qui évoque des marbrures. La décoloration provient d'une réduction du débit sanguin des artérioles qui irriguent les capillaires cutanés : le sang, en manque d'oxygène, produit une décoloration bleue. Cette affection peut être liée à une situation qui augmente les risques de caillot sanguin, ce qui correspond à de nombreuses possibilités, tant pathologiques que bénignes ; par exemple l'hyperlipémie, problèmes micro-vasculaires, anémie, carences nutritionnelles, maladies auto-immunes, médicaments ou toxiques.
+Le livedo reticularis peut être lié à de graves pathologies sous-jacentes. Les diagnostics possibles correspondent à des maladies hématologiques, auto-immunes (rhumatologiques), cardiovasculaires ou endocrines. Dans la majorité des cas (80%), la biopsie permet de déterminer le diagnostic.
+L'étymologie du livedo reticularis provient du latin livere qui signifie bleuâtre et de reticular qui renvoie à l'aspect d'un maillage.
 </t>
         </is>
       </c>
